--- a/translate/translate.xlsx
+++ b/translate/translate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="553">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,12 +499,6 @@
 暫く（しばらく）
 経って（たって）
 切断（せつだん）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usb video wide mode state迁移的时机调整
-ACC OFF-&gt;ON时，USB Ctrl从USBAPP取得当前的wide mode时，误将USBAPP返回的当前wide mode通知识别为wide mode设定，将状态强制设定为usb video wide mode state，导致画面迁移到04-08-USB-12 USB ワイドモード選択画面。
-USBCtrl接收到USBAPP返回的wide mode通知时，不设置usb video wide mode state，用户押下[ワイドモード]TSW时，才将状态变更为usb video wide mode state，迁移到04-08-USB-12 USB ワイドモード選択画面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3082,6 +3076,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>回答内容已经了解。
+追加质问如下：
+1）如果当前播放的曲目的Track Name，Artist Name，Album Name信息都不是空，请问发送的ID 4B2中信息如何设置？
+       是发送三条ID 4B2分别对应Track Name，Artist Name，Album Name还是只发送一条？如果发送一条的话，应该发送什么信息？
+2）关于ID4B2的发送，如果当前iPod是单曲循环mode，每次播放终了再次播放时ID56B是否需要重复发送？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうではありません。Media Nameの値は以下の通りです：$1=Track Name， $2=Artist Name， $3=Album Name。
+もしカレント再生している曲目のTrack Name、Artist Name、Album Nameが全部存在する場合、ID4B2送信時、「Media Name」Signalの値はどのように設定すべきでしょうか（$1~ $3）を？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是的，Media Name的值包括：$1=Track Name， $2=Artist Name， $3=Album Name
+如果当前再生的曲目的Track Name、Artist Name、Album Name都存在的场合，ID4B2送信时，「Media Name」Signal的值应该如何设定（$1~ $3）？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usb video wide mode state迁移的时机调整
+ACC OFF-&gt;ON时，USB Ctrl从USBAPP取得当前的wide mode时，误将USBAPP返回的当前wide mode通知识别为wide mode设定，将状态强制设定为usb video wide mode state，导致画面迁移到04-08-USB-12 USB ワイドモード選択画面。
+USBCtrl接收到USBAPP返回的wide mode通知时，不设置usb video wide mode state，用户押下[ワイドモード]TSW时，才将状态变更为usb video wide mode state，迁移到04-08-USB-12 USB ワイドモード選択画面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USBデバイス接続時、ACC OFF-&gt;ON操作を行うと、デバイス接続処理が比較的に遅いため、Source ONの時には、まずDisconnect通知を発送し、次ぎにデバイス接続後、またconnect通知を発送した。描画メカニズムの原因により、Disconnectと該当するNO Device画面は表示されなく、connectと該当する再生画面は表示できません。
+そのため、再生中にまずNo Device画面を表示した後、connect画面描画要求が処理されてから再生画面を表示することになり、画面を即時に更新できない問題が発生しました。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB再生中、ACC OFF-&gt;ON操作を実行し、起動後、USB再生時、画面は即時にUSB再生画面に更新する。
+USBデバイスを抜き、カレントの再生画面はNO Device画面に切り替える。
+データのないUSBメモリーを差込、USB Audio No Data画面を表示する。
+USBマウスデバイスを差込み、04-08-USB-17画面を表示し、
+HUBデバイスを差込み、04-08-USB-18画面を表示する。
+過電流の時、04-08-USB-19画面を表示する。
+模擬でUSB無反応に設定する時、04-08-USB-20画面を表示する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB设备接续时，进行ACC OFF-&gt;ON操作，因为设备接续处理较晚，Source ON时先发送了Disconnect通知，
+之后设备接续后，又发送了connect通知，因为描画机制的原因，Disconnect对应的NO Device画面没有显示出来，connect对应的再生画面无法显示。
+所以造成了再生中先显示No Device画面后，connect画面描述请求被处理后才显示再生画面，画面更新不及时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB再生中，进行ACC OFF-&gt;ON操作，启动后，USB再生时，画面及时更新到USB再生画面。
+拨出USB设备，当前再生画面切换到NO Device画面，插入没有数据的U盘，显示USB Audio No Data画面，
+插入USB鼠标设备，显示04-08-USB-17画面，插入HUB设备，显示04-08-USB-18画面，過電流时，显示04-08-USB-19画面。
+模拟设置USB無反応时，显示04-08-USB-20画面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>回答内容について承知いたしました。
 下記追加質問があります。
 1）現状再生している曲のTrack Name、Artist Name、Album Name情報がすべて空ではない場合、送信するID 4B2の情報はどのように設定すべきでしょうか。
@@ -3090,21 +3136,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回答内容已经了解。
-追加质问如下：
-1）如果当前播放的曲目的Track Name，Artist Name，Album Name信息都不是空，请问发送的ID 4B2中信息如何设置？
-       是发送三条ID 4B2分别对应Track Name，Artist Name，Album Name还是只发送一条？如果发送一条的话，应该发送什么信息？
-2）关于ID4B2的发送，如果当前iPod是单曲循环mode，每次播放终了再次播放时ID56B是否需要重复发送？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>そうではありません。Media Nameの値は以下の通りです：$1=Track Name， $2=Artist Name， $3=Album Name。
-もしカレント再生している曲目のTrack Name、Artist Name、Album Nameが全部存在する場合、ID4B2送信時、「Media Name」Signalの値はどのように設定すべきでしょうか（$1~ $3）を？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不是的，Media Name的值包括：$1=Track Name， $2=Artist Name， $3=Album Name
-如果当前再生的曲目的Track Name、Artist Name、Album Name都存在的场合，ID4B2送信时，「Media Name」Signal的值应该如何设定（$1~ $3）？</t>
+    <t xml:space="preserve">質問（しつもん）
+曲（きょく）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比較的（ひかくてき）
+描画（びょうが）
+要求（ようきゅう）
+即時（そくじ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差し込み（さしこみ）
+過（か）
+電流（でんりゅう）
+抜き（ぬき）
+模擬（もぎ）
+無（む）
+反応（はんのう）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3611,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3652,19 +3703,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="7" customFormat="1" ht="189" x14ac:dyDescent="0.15">
@@ -3812,7 +3863,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -3908,13 +3959,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3924,20 +3975,20 @@
         <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="7" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
@@ -3945,22 +3996,22 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>523</v>
-      </c>
       <c r="E20" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="H20" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="7" customFormat="1" ht="81" x14ac:dyDescent="0.15">
@@ -3968,13 +4019,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3984,10 +4035,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -3998,17 +4049,17 @@
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>513</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="2:8" s="7" customFormat="1" ht="229.5" x14ac:dyDescent="0.15">
@@ -4016,15 +4067,15 @@
         <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="2:8" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4032,10 +4083,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -4046,10 +4097,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -4060,17 +4111,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="2:8" s="7" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
@@ -4078,17 +4129,17 @@
         <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>536</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="2:8" s="7" customFormat="1" ht="108" x14ac:dyDescent="0.15">
@@ -4096,13 +4147,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -4112,12 +4163,14 @@
         <v>28</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>549</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>550</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
@@ -4126,30 +4179,42 @@
         <v>29</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:8" s="7" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B32" s="5">
         <v>30</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>551</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7" s="7" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>552</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
     </row>
@@ -4815,588 +4880,588 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
+        <v>375</v>
+      </c>
+      <c r="D39" t="s">
         <v>376</v>
       </c>
-      <c r="D39" t="s">
-        <v>377</v>
-      </c>
       <c r="E39" t="s">
+        <v>385</v>
+      </c>
+      <c r="F39" t="s">
         <v>386</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>387</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>388</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>389</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>390</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>391</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>392</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>393</v>
-      </c>
-      <c r="M39" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C40" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" t="s">
         <v>361</v>
       </c>
-      <c r="D40" t="s">
-        <v>362</v>
-      </c>
       <c r="E40" t="s">
+        <v>377</v>
+      </c>
+      <c r="F40" t="s">
         <v>378</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>379</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>380</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>381</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>382</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>383</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>383</v>
+      </c>
+      <c r="M40" t="s">
         <v>384</v>
-      </c>
-      <c r="L40" t="s">
-        <v>384</v>
-      </c>
-      <c r="M40" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C41" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" t="s">
         <v>364</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>365</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>366</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>367</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>368</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>369</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>370</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>371</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>372</v>
       </c>
-      <c r="L41" t="s">
-        <v>373</v>
-      </c>
       <c r="M41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C42" t="s">
+        <v>396</v>
+      </c>
+      <c r="D42" t="s">
         <v>397</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>398</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>399</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>400</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>401</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>403</v>
+      </c>
+      <c r="J42" t="s">
         <v>402</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>404</v>
       </c>
-      <c r="J42" t="s">
-        <v>403</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>405</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>406</v>
-      </c>
-      <c r="M42" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
+        <v>407</v>
+      </c>
+      <c r="D43" t="s">
         <v>408</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>409</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>410</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>411</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>412</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>413</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>414</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>415</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>416</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>417</v>
-      </c>
-      <c r="M43" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
+        <v>418</v>
+      </c>
+      <c r="D44" t="s">
         <v>419</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>420</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>421</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>422</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>423</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>424</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>425</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>426</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>427</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>428</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>429</v>
-      </c>
-      <c r="N44" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
+        <v>430</v>
+      </c>
+      <c r="D45" t="s">
+        <v>432</v>
+      </c>
+      <c r="E45" t="s">
+        <v>433</v>
+      </c>
+      <c r="F45" t="s">
+        <v>434</v>
+      </c>
+      <c r="G45" t="s">
+        <v>435</v>
+      </c>
+      <c r="H45" t="s">
+        <v>436</v>
+      </c>
+      <c r="I45" t="s">
+        <v>437</v>
+      </c>
+      <c r="J45" t="s">
+        <v>438</v>
+      </c>
+      <c r="K45" t="s">
+        <v>439</v>
+      </c>
+      <c r="L45" t="s">
+        <v>440</v>
+      </c>
+      <c r="M45" t="s">
+        <v>441</v>
+      </c>
+      <c r="N45" t="s">
         <v>431</v>
-      </c>
-      <c r="D45" t="s">
-        <v>433</v>
-      </c>
-      <c r="E45" t="s">
-        <v>434</v>
-      </c>
-      <c r="F45" t="s">
-        <v>435</v>
-      </c>
-      <c r="G45" t="s">
-        <v>436</v>
-      </c>
-      <c r="H45" t="s">
-        <v>437</v>
-      </c>
-      <c r="I45" t="s">
-        <v>438</v>
-      </c>
-      <c r="J45" t="s">
-        <v>439</v>
-      </c>
-      <c r="K45" t="s">
-        <v>440</v>
-      </c>
-      <c r="L45" t="s">
-        <v>441</v>
-      </c>
-      <c r="M45" t="s">
-        <v>442</v>
-      </c>
-      <c r="N45" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F46" t="s">
+        <v>480</v>
+      </c>
+      <c r="G46" t="s">
         <v>481</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>482</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>483</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>484</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>485</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>486</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>487</v>
-      </c>
-      <c r="M46" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F47" t="s">
+        <v>489</v>
+      </c>
+      <c r="G47" t="s">
         <v>490</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>491</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>492</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>493</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>494</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>495</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>496</v>
-      </c>
-      <c r="M47" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F48" t="s">
+        <v>497</v>
+      </c>
+      <c r="G48" t="s">
         <v>498</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>499</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>500</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>501</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>502</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>503</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>504</v>
-      </c>
-      <c r="M48" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D50" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E52" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H52" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H53" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E56" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -5420,147 +5485,147 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5585,222 +5650,222 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5824,472 +5889,472 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6313,317 +6378,317 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6647,242 +6712,242 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
